--- a/DOM_Banner/output/dept_banner/Manish Shah_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Manish Shah_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson AZ85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson AZ85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson AZ85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson AZ85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson AZ85721, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323656799</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Visible-telecom tunable dual-band optical isolator based on dynamic modulation in thin-film lithium niobate</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Optics Letters</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Optica Publishing Group</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1364/ol.482635</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37058621</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1364/ol.482635</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, USA.; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, USA.; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, USA.; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, USA.; Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, USA.; Chandra Department of Electrical and Computer Engineering, the University of Texas at Austin, Austin, USA; Wyant College of Optical Sciences, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387966321</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Adapted poling to break the nonlinear efficiency limit in nanophotonic lithium niobate waveguides</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Nature Nanotechnology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41565-023-01525-w</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37884657</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41565-023-01525-w</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>James C. Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327746827</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Clarification of the Exceptional-Point Contribution to Photonic Sensing</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Physical review applied</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Physical Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1103/physrevapplied.19.034059</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1103/physrevapplied.19.034059</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aslan Amirian, Mitali Shah, Rimsha Ali</t>
+          <t>Mitali Shah, Mehak Rafiq, Uzma Habib, Rehan Zafar Paracha, Maria Shabbir</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323038985</t>
+          <t>NUST: National University of Sciences and Technology; NUST: National University of Sciences and Technology; NUST: National University of Sciences and Technology; NUST: National University of Sciences and Technology; NUST: National University of Sciences and Technology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CARDIAC AMYLOIDOSIS- A WOLF IN SHEEP'S SKIN</t>
+          <t>https://openalex.org/W4379523653</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>Computational characterization of the interactions between novel Boronic Acid derivatives with urokinase-type plasminogen activator (uPA) and their binding energy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03431-9</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.06.05.543664</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03431-9</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.06.05.543664</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liang Zhang, Pao-Kang Chen, Ian Briggs, Chaohan Cui, Mitali Shah, Linran Fan</t>
+          <t>Adalberto Guzman, Mitali Shah, Irina Mishagina, Maria Ibarra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323538199</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Advanced quantum state engineering with Pockels nonlinear integrated optics</t>
+          <t>https://openalex.org/W4383420757</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>Mo1043 REMOVING DOCUSATE SODIUM PRESCRIPTION AS A LAXATIVE FOR CONSTIPATION IN AN INTERNAL MEDICINE RESIDENCY PRACTICE AFTER AN EVIDENCE-BASED LECTURE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2653981</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)02719-1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1117/12.2653981</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0016-5085(23)02719-1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mitali Shah, Mehak Rafiq, Uzma Habib, Rehan Zafar Paracha, Maria Shabbir</t>
+          <t>Himanshu Mishra, Shreya Singh, Ritusha Mishra, Ankita Pandey, Abhijit Mandal, Ekta Prakash, Ganeshkumar Patel, Mitali Shah, Tej Bali Singh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379523653</t>
+          <t>Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; Department of Radiotherapy and Oncology, PGIMER; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, B.H.U.; N.M.H.P, Banaras Hindu University</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Computational characterization of the interactions between novel Boronic Acid derivatives with urokinase-type plasminogen activator (uPA) and their binding energy</t>
+          <t>https://openalex.org/W4384521976</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>Evaluation of Survival Outcome and Prognostic Factors for Oral Cavity Cancer Treated with Volumetric Arc Therapy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.06.05.543664</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3156396/v1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2023.06.05.543664</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3156396/v1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Adalberto Guzman, Mitali Shah, Irina Mishagina, Maria Ibarra</t>
+          <t>Mitali Shah, Ian Briggs, Pao-Kang Chen, Songyan Hou, Linran Fan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383420757</t>
+          <t>James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, 1630 E. University Blvd., Tucson, AZ 85721, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mo1043 REMOVING DOCUSATE SODIUM PRESCRIPTION AS A LAXATIVE FOR CONSTIPATION IN AN INTERNAL MEDICINE RESIDENCY PRACTICE AFTER AN EVIDENCE-BASED LECTURE</t>
+          <t>https://openalex.org/W4385364400</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Dual-band Optical Isolation in Thin-film Lithium Niobate Based on Dynamic Modulation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02719-1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1364/cleo_si.2023.sw3l.6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02719-1</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1364/cleo_si.2023.sw3l.6</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Himanshu Mishra, Shreya Singh, Ritusha Mishra, Ankita Pandey, Abhijit Mandal, Ekta Prakash, Ganeshkumar Patel, Mitali Shah, Tej Bali Singh</t>
+          <t>Songyan Hou, Paokang Chen, Mitali Shah, Ian Briggs, Weichuan Xing, Zhihong Liu, Linran Fan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384521976</t>
+          <t>Guangzhou Institute of Technology, Xidian University, Guangzhou 510555, China; Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, United States; Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, United States; Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, United States; Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, United States; Guangzhou Institute of Technology, Xidian University, Guangzhou 510555, China; Guangzhou Institute of Technology, Xidian University, Guangzhou 510555, China; Wyant College of Optical Sciences, The University of Arizona, Tucson, Arizona 85721, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Evaluation of Survival Outcome and Prognostic Factors for Oral Cavity Cancer Treated with Volumetric Arc Therapy</t>
+          <t>https://openalex.org/W4386325355</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>Programmable Optical Filter in Thin-Film Lithium Niobate with Simultaneous Tunability of Extinction Ratio and Wavelength</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>ACS Photonics</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3156396/v1</t>
+          <t>American Chemical Society</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1021/acsphotonics.3c00574</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3156396/v1</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsphotonics.3c00574</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mitali Shah, Suk Hyun Sung, Robert Hovden</t>
+          <t>Himanshu Mishra, Shreya Singh, Ritusha Mishra, Ankita Pandey, Abhijit Mandal, Ekta Prakash, Ganeshkumar Patel, Mitali Shah, Tej Bali Singh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385071738</t>
+          <t>Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; Department of Radiotherapy and Oncology, Postgraduate Institute of Medical Education and Research, Chandigarh, India; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; Department of Radiotherapy and Radiation Medicine, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India; N.M.H.P., Centre of Excellence, Department of Psychiatry, Institute of Medical Sciences, Banaras Hindu University, Varanasi, India</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An Atlas of Fourier Transforms</t>
+          <t>https://openalex.org/W4386980901</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>Evaluation of survival outcome and prognostic factors for oral cavity cancer treated with volumetric arc therapy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Microscopy and Microanalysis</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Journal of Cancer Research and Clinical Oncology</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/micmic/ozad067.723</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1007/s00432-023-05397-4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37613552</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/micmic/ozad067.723</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37740764</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s00432-023-05397-4</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,81 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pao-Kang Chen, Ian Briggs, Chaohan Cui, Liang Zhang, Mitali Shah, Linran Fan</t>
+          <t>Shreya Singh, H. Mishra, Ritusha Mishra, Isha Jaiswal, Mitali Shah, Ankita Pandey, Kanchan Chowdhury</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385227457</t>
+          <t>Radiotherapy, Institute of Medical Sciences, Banaras Hindu University, IMS-BHU, Varanasi, India; Radiotherapy, Institute of Medical Sciences, Banaras Hindu University, IMS-BHU, Varanasi, India; Radiotherapy, Institute of Medical Sciences, Banaras Hindu University, IMS-BHU, Varanasi, India; Radiotherapy, Institute of Medical Sciences, Banaras Hindu University, IMS-BHU, Varanasi, India; Radiotherapy, Institute of Medical Sciences, Banaras Hindu University, IMS-BHU, Varanasi, India; Radiotherapy, PGIMER-Post Graduate Institute of Medical Education and Research, Chandigarh, India; Faculty of Medicine, Institute of Medical Sciences, Banaras Hindu University, IMS-BHU, Varanasi, India</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Adapted poling to break the nonlinear efficiency limit in nanophotonic
-  lithium niobate waveguides</t>
+          <t>https://openalex.org/W4387811436</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>766P A comparative study of sequential and interdigitated brachytherapy with chemoradiation in patients of locally advanced carcinoma cervix</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2307.11671</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.1945</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2307.11671</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.1945</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1263,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mitali Shah, Ian Briggs, Pao-Kang Chen, Songyan Hou, Linran Fan</t>
+          <t>Iuliia Kovalenko, Mitali Shah, Nelly Kiriza, Enrico M. Novelli, Laura DeCastro, Julia Xu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385364400</t>
+          <t>1University of Pittsburgh Medical Center (UPMC) Harrisburg Hospital, Harrisburg, PA; 2Drexel University College of Medicine, Philadelphia; 3Department of Medicine, University of Pittsburgh, Heart, Lung, Blood and Vascular Medicine Institute, Pittsburgh; 3Department of Medicine, University of Pittsburgh, Heart, Lung, Blood and Vascular Medicine Institute, Pittsburgh; 3Department of Medicine, University of Pittsburgh, Heart, Lung, Blood and Vascular Medicine Institute, Pittsburgh; 3Department of Medicine, University of Pittsburgh, Heart, Lung, Blood and Vascular Medicine Institute, Pittsburgh</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dual-band Optical Isolation in Thin-film Lithium Niobate Based on Dynamic Modulation</t>
+          <t>https://openalex.org/W4389229401</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Addressing Chronic Anemia in Sickle Cell Disease: Characterizing Erythropoiesis-Stimulating Agent (ESA) Utilization and Practice Patterns Among Providers</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/cleo_si.2023.sw3l.6</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1182/blood-2023-180334</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1308,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1364/cleo_si.2023.sw3l.6</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-180334</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1345,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Songyan Hou, Paokang Chen, Mitali Shah, Ian Briggs, Weichuan Xing, Zhihong Liu, Linran Fan</t>
+          <t>Iuliia Kovalenko, Tabinda Saleem, Mitali Shah, Sara Seyedroudbari, K. Golubykh, Rimsha Ali, TAAHA MIRZA, Babray Laek, Ahsan Wahab, Asmi Chattaraj, Ekaterina Proskuriakova, Chandi Garg, Rafiullah Khan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386325355</t>
+          <t>UPMC Harrisburg, Harrisburg, PA, USA; UPMC Presbyterian/Montefiore Hospitals, Pittsburg, PA, USA; Drexel University College of Medicine, Philadelphia, PA, USA; Drexel University College of Medicine, Philadelphia, PA, USA; UPMC Harrisburg, Harrisburg, PA, USA; UPMC Harrisburg, Harrisburg, PA, USA; UPMC Harrisburg, Harrisburg, PA, USA; UPMC McKeesport, Pittsburg, PA, USA; Levine Cancer Institute, Charlotte, NC, USA; UPMC McKeesport, Pittsburg, PA, USA; Mount Sinai Hospital, Chicago, IL, USA; UPMC Harrisburg, Harrisburg, PA, USA; The Christ Hospital Network, Cincinnati, Ohio, USA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Programmable Optical Filter in Thin-Film Lithium Niobate with Simultaneous Tunability of Extinction Ratio and Wavelength</t>
+          <t>https://openalex.org/W4389365878</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>Novel Pharmacological Treatment Options of Steroid-Refractory Graft-versus-Host Disease</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ACS Photonics</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>American Chemical Society</t>
+          <t>Advances in Hematology</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsphotonics.3c00574</t>
+          <t>Hindawi Publishing Corporation</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1155/2023/9949961</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsphotonics.3c00574</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38094101</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1155/2023/9949961</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1427,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Himanshu Mishra, Shreya Singh, Ritusha Mishra, Ankita Pandey, Abhijit Mandal, Ekta Prakash, Ganeshkumar Patel, Mitali Shah, Tej Bali Singh</t>
+          <t>Aslan Amirian, Mitali Shah, Rimsha Ali</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386980901</t>
+          <t>UPMC Harrisburg, Harrisburg, NY, USA; UPMC Harrisburg, Harrisburg, NY, USA; UPMC Harrisburg, Harrisburg, NY, USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Evaluation of survival outcome and prognostic factors for oral cavity cancer treated with volumetric arc therapy</t>
+          <t>https://openalex.org/W4323038985</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>CARDIAC AMYLOIDOSIS- A WOLF IN SHEEP'S SKIN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Journal of Cancer Research and Clinical Oncology</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00432-023-05397-4</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s0735-1097(23)03431-9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1472,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37740764</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00432-023-05397-4</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03431-9</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1509,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shreya Singh, H. Mishra, Ritusha Mishra, Isha Jaiswal, Mitali Shah, Ankita Pandey, Kanchan Chowdhury</t>
+          <t>Liang Zhang, Pao-Kang Chen, Ian Briggs, Chaohan Cui, Mitali Shah, Linran Fan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387811436</t>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>766P A comparative study of sequential and interdigitated brachytherapy with chemoradiation in patients of locally advanced carcinoma cervix</t>
+          <t>https://openalex.org/W4323538199</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Advanced quantum state engineering with Pockels nonlinear integrated optics</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.1945</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1117/12.2653981</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.1945</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1117/12.2653981</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1591,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Iuliia Kovalenko, Mitali Shah, Nelly Kiriza, Enrico M. Novelli, Laura DeCastro, Julia Xu</t>
+          <t>Mitali Shah, Suk Hyun Sung, Robert Hovden</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389229401</t>
+          <t>Engineering Physics Program, University of Michigan , Ann Arbor, MI , United States; Department of Materials Science and Engineering, University of Michigan , Ann Arbor, MI , United States; Department of Materials Science and Engineering, University of Michigan , Ann Arbor, MI , United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Addressing Chronic Anemia in Sickle Cell Disease: Characterizing Erythropoiesis-Stimulating Agent (ESA) Utilization and Practice Patterns Among Providers</t>
+          <t>https://openalex.org/W4385071738</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>An Atlas of Fourier Transforms</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Microscopy and Microanalysis</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-180334</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/micmic/ozad067.723</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-180334</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37613552</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/micmic/ozad067.723</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1673,80 +1752,86 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iuliia Kovalenko, Tabinda Saleem, Mitali Shah, Sara Seyedroudbari, K. Golubykh, Rimsha Ali, TAAHA MIRZA, Babray Laek, Ahsan Wahab, Asmi Chattaraj, Ekaterina Proskuriakova, Chandi Garg, Rafiullah Khan</t>
+          <t>Pao-Kang Chen, Ian Briggs, Chaohan Cui, Liang Zhang, Mitali Shah, Linran Fan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389365878</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Novel Pharmacological Treatment Options of Steroid-Refractory Graft-versus-Host Disease</t>
+          <t>https://openalex.org/W4385227457</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>Adapted poling to break the nonlinear efficiency limit in nanophotonic
+  lithium niobate waveguides</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Advances in Hematology</t>
+          <t>2023-07-21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hindawi Publishing Corporation</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1155/2023/9949961</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://arxiv.org/abs/2307.11671</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38094101</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1155/2023/9949961</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2307.11671</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
